--- a/printed_parts/output/PrintList.xlsx
+++ b/printed_parts/output/PrintList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>x-carriage.stl</t>
   </si>
@@ -72,22 +72,25 @@
     <t>Status</t>
   </si>
   <si>
-    <t>printing</t>
-  </si>
-  <si>
-    <t>20151112 0120</t>
-  </si>
-  <si>
-    <t>2/3 good</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>20151112 2106</t>
-  </si>
-  <si>
-    <t>partial reprint</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>1 of 3</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>q (minus stock tensioner)</t>
+  </si>
+  <si>
+    <t>mod y tensioner</t>
+  </si>
+  <si>
+    <t>MISSING</t>
   </si>
 </sst>
 </file>
@@ -426,128 +429,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F18"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/printed_parts/output/PrintList.xlsx
+++ b/printed_parts/output/PrintList.xlsx
@@ -78,9 +78,6 @@
     <t>old</t>
   </si>
   <si>
-    <t>1 of 3</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
@@ -90,7 +87,10 @@
     <t>mod y tensioner</t>
   </si>
   <si>
-    <t>MISSING</t>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q2 (X left only)</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -486,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -510,15 +510,15 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
